--- a/data/taxon_data_cyathocarpus.xlsx
+++ b/data/taxon_data_cyathocarpus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\2025_03_05_Manuscrito00_Cyathocarpus\MapsCyathocarpus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3db8b9dcb961099d/Paleomaps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F4483-914C-478B-ABA7-BBDC8ECEDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FA4F4483-914C-478B-ABA7-BBDC8ECEDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449D96B7-6FF9-43AD-8C8B-BCE6D3505757}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9854A930-9E5C-44DA-8608-54B4B94C729B}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
   <si>
-    <t>Formation</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Cyathocarpus_candolleana</t>
+  </si>
+  <si>
+    <t>formation</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,708 +661,708 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
         <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
         <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
         <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
         <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
